--- a/STAT/예산대비집행양식_프로젝트.xlsx
+++ b/STAT/예산대비집행양식_프로젝트.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\BudgetProject\STAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -400,12 +400,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -416,6 +410,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -725,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:CU68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A68" sqref="A48:XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -757,163 +757,163 @@
       <c r="CQ2" s="1"/>
     </row>
     <row r="4" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15" t="s">
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15" t="s">
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15" t="s">
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15" t="s">
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15" t="s">
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="15"/>
-      <c r="AF4" s="15" t="s">
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="15"/>
-      <c r="AI4" s="15"/>
-      <c r="AJ4" s="15" t="s">
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="19"/>
+      <c r="AI4" s="19"/>
+      <c r="AJ4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="AK4" s="15"/>
-      <c r="AL4" s="15"/>
-      <c r="AM4" s="15"/>
-      <c r="AN4" s="15" t="s">
+      <c r="AK4" s="19"/>
+      <c r="AL4" s="19"/>
+      <c r="AM4" s="19"/>
+      <c r="AN4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="AO4" s="15"/>
-      <c r="AP4" s="15"/>
-      <c r="AQ4" s="15"/>
-      <c r="AR4" s="15" t="s">
+      <c r="AO4" s="19"/>
+      <c r="AP4" s="19"/>
+      <c r="AQ4" s="19"/>
+      <c r="AR4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="AS4" s="15"/>
-      <c r="AT4" s="15"/>
-      <c r="AU4" s="15"/>
-      <c r="AV4" s="15" t="s">
+      <c r="AS4" s="19"/>
+      <c r="AT4" s="19"/>
+      <c r="AU4" s="19"/>
+      <c r="AV4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="AW4" s="15"/>
-      <c r="AX4" s="15"/>
-      <c r="AY4" s="15"/>
-      <c r="AZ4" s="15" t="s">
+      <c r="AW4" s="19"/>
+      <c r="AX4" s="19"/>
+      <c r="AY4" s="19"/>
+      <c r="AZ4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="BA4" s="15"/>
-      <c r="BB4" s="15"/>
-      <c r="BC4" s="15"/>
-      <c r="BD4" s="15" t="s">
+      <c r="BA4" s="19"/>
+      <c r="BB4" s="19"/>
+      <c r="BC4" s="19"/>
+      <c r="BD4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="BE4" s="15"/>
-      <c r="BF4" s="15"/>
-      <c r="BG4" s="15"/>
-      <c r="BH4" s="15" t="s">
+      <c r="BE4" s="19"/>
+      <c r="BF4" s="19"/>
+      <c r="BG4" s="19"/>
+      <c r="BH4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="BI4" s="15"/>
-      <c r="BJ4" s="15"/>
-      <c r="BK4" s="15"/>
-      <c r="BL4" s="15" t="s">
+      <c r="BI4" s="19"/>
+      <c r="BJ4" s="19"/>
+      <c r="BK4" s="19"/>
+      <c r="BL4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="BM4" s="15"/>
-      <c r="BN4" s="15"/>
-      <c r="BO4" s="15"/>
-      <c r="BP4" s="15" t="s">
+      <c r="BM4" s="19"/>
+      <c r="BN4" s="19"/>
+      <c r="BO4" s="19"/>
+      <c r="BP4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="BQ4" s="15"/>
-      <c r="BR4" s="15"/>
-      <c r="BS4" s="15"/>
-      <c r="BT4" s="15" t="s">
+      <c r="BQ4" s="19"/>
+      <c r="BR4" s="19"/>
+      <c r="BS4" s="19"/>
+      <c r="BT4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="BU4" s="15"/>
-      <c r="BV4" s="15"/>
-      <c r="BW4" s="15"/>
-      <c r="BX4" s="15" t="s">
+      <c r="BU4" s="19"/>
+      <c r="BV4" s="19"/>
+      <c r="BW4" s="19"/>
+      <c r="BX4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="BY4" s="15"/>
-      <c r="BZ4" s="15"/>
-      <c r="CA4" s="15"/>
-      <c r="CB4" s="15" t="s">
+      <c r="BY4" s="19"/>
+      <c r="BZ4" s="19"/>
+      <c r="CA4" s="19"/>
+      <c r="CB4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="CC4" s="15"/>
-      <c r="CD4" s="15"/>
-      <c r="CE4" s="15"/>
-      <c r="CF4" s="15" t="s">
+      <c r="CC4" s="19"/>
+      <c r="CD4" s="19"/>
+      <c r="CE4" s="19"/>
+      <c r="CF4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="CG4" s="15"/>
-      <c r="CH4" s="15"/>
-      <c r="CI4" s="15"/>
-      <c r="CJ4" s="15" t="s">
+      <c r="CG4" s="19"/>
+      <c r="CH4" s="19"/>
+      <c r="CI4" s="19"/>
+      <c r="CJ4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="CK4" s="15"/>
-      <c r="CL4" s="15"/>
-      <c r="CM4" s="15"/>
-      <c r="CN4" s="15" t="s">
+      <c r="CK4" s="19"/>
+      <c r="CL4" s="19"/>
+      <c r="CM4" s="19"/>
+      <c r="CN4" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="CO4" s="15"/>
-      <c r="CP4" s="15"/>
-      <c r="CQ4" s="15"/>
-      <c r="CR4" s="15" t="s">
+      <c r="CO4" s="19"/>
+      <c r="CP4" s="19"/>
+      <c r="CQ4" s="19"/>
+      <c r="CR4" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="CS4" s="15"/>
-      <c r="CT4" s="15"/>
-      <c r="CU4" s="15"/>
+      <c r="CS4" s="19"/>
+      <c r="CT4" s="19"/>
+      <c r="CU4" s="19"/>
     </row>
     <row r="5" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="5" t="s">
         <v>0</v>
       </c>
@@ -1201,8 +1201,8 @@
       </c>
     </row>
     <row r="6" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="4"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -1514,8 +1514,8 @@
       </c>
     </row>
     <row r="7" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="4"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -1827,8 +1827,8 @@
       </c>
     </row>
     <row r="8" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="4"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -2140,8 +2140,8 @@
       </c>
     </row>
     <row r="9" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="4"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -2453,8 +2453,8 @@
       </c>
     </row>
     <row r="10" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="4"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -2766,8 +2766,8 @@
       </c>
     </row>
     <row r="11" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="4"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -3079,8 +3079,8 @@
       </c>
     </row>
     <row r="12" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="4"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -3392,8 +3392,8 @@
       </c>
     </row>
     <row r="13" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="4"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -3705,8 +3705,8 @@
       </c>
     </row>
     <row r="14" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="4"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -4018,8 +4018,8 @@
       </c>
     </row>
     <row r="15" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="4"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -4331,8 +4331,8 @@
       </c>
     </row>
     <row r="16" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="4"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -4644,8 +4644,8 @@
       </c>
     </row>
     <row r="17" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="4"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -4957,8 +4957,8 @@
       </c>
     </row>
     <row r="18" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -5270,8 +5270,8 @@
       </c>
     </row>
     <row r="19" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="4"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -5583,8 +5583,8 @@
       </c>
     </row>
     <row r="20" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="4"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -5896,8 +5896,8 @@
       </c>
     </row>
     <row r="21" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="4"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -6209,8 +6209,8 @@
       </c>
     </row>
     <row r="22" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="4"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -6522,8 +6522,8 @@
       </c>
     </row>
     <row r="23" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="4"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -6835,8 +6835,8 @@
       </c>
     </row>
     <row r="24" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="4"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -7148,8 +7148,8 @@
       </c>
     </row>
     <row r="25" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="9"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -7461,11 +7461,11 @@
       </c>
     </row>
     <row r="26" spans="2:99" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="19"/>
-      <c r="C26" s="17" t="s">
+      <c r="B26" s="17"/>
+      <c r="C26" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="17"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="7">
         <f t="shared" ref="E26:AJ26" si="70">SUM(E6:E25)</f>
         <v>0</v>
@@ -7723,7 +7723,7 @@
         <v>0</v>
       </c>
       <c r="BQ26" s="7">
-        <f t="shared" ref="BQ26:CV26" si="72">SUM(BQ6:BQ25)</f>
+        <f t="shared" ref="BQ26:CU26" si="72">SUM(BQ6:BQ25)</f>
         <v>0</v>
       </c>
       <c r="BR26" s="7">
@@ -7848,8 +7848,8 @@
       </c>
     </row>
     <row r="27" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B27" s="19"/>
-      <c r="C27" s="18"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="12"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
@@ -8161,8 +8161,8 @@
       </c>
     </row>
     <row r="28" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="4"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -8474,8 +8474,8 @@
       </c>
     </row>
     <row r="29" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="4"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -8787,8 +8787,8 @@
       </c>
     </row>
     <row r="30" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="4"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -9100,8 +9100,8 @@
       </c>
     </row>
     <row r="31" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="4"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
@@ -9413,8 +9413,8 @@
       </c>
     </row>
     <row r="32" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="4"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
@@ -9726,8 +9726,8 @@
       </c>
     </row>
     <row r="33" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="4"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
@@ -10039,8 +10039,8 @@
       </c>
     </row>
     <row r="34" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="4"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
@@ -10352,8 +10352,8 @@
       </c>
     </row>
     <row r="35" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
       <c r="D35" s="4"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
@@ -10665,8 +10665,8 @@
       </c>
     </row>
     <row r="36" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
       <c r="D36" s="4"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
@@ -10978,8 +10978,8 @@
       </c>
     </row>
     <row r="37" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
       <c r="D37" s="4"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
@@ -11291,8 +11291,8 @@
       </c>
     </row>
     <row r="38" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
       <c r="D38" s="4"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
@@ -11604,8 +11604,8 @@
       </c>
     </row>
     <row r="39" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
       <c r="D39" s="4"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
@@ -11917,8 +11917,8 @@
       </c>
     </row>
     <row r="40" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
       <c r="D40" s="4"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
@@ -12230,8 +12230,8 @@
       </c>
     </row>
     <row r="41" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="4"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
@@ -12543,8 +12543,8 @@
       </c>
     </row>
     <row r="42" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
       <c r="D42" s="4"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
@@ -12856,8 +12856,8 @@
       </c>
     </row>
     <row r="43" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
       <c r="D43" s="4"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
@@ -13169,8 +13169,8 @@
       </c>
     </row>
     <row r="44" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
       <c r="D44" s="4"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
@@ -13482,8 +13482,8 @@
       </c>
     </row>
     <row r="45" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
       <c r="D45" s="4"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
@@ -13795,8 +13795,8 @@
       </c>
     </row>
     <row r="46" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B46" s="19"/>
-      <c r="C46" s="20"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="18"/>
       <c r="D46" s="9"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -14108,11 +14108,11 @@
       </c>
     </row>
     <row r="47" spans="2:99" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="19"/>
-      <c r="C47" s="17" t="s">
+      <c r="B47" s="17"/>
+      <c r="C47" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D47" s="17"/>
+      <c r="D47" s="15"/>
       <c r="E47" s="7">
         <f t="shared" ref="E47:AJ47" si="144">SUM(E27:E46)</f>
         <v>0</v>
@@ -14370,7 +14370,7 @@
         <v>0</v>
       </c>
       <c r="BQ47" s="7">
-        <f t="shared" ref="BQ47:CV47" si="146">SUM(BQ27:BQ46)</f>
+        <f t="shared" ref="BQ47:CU47" si="146">SUM(BQ27:BQ46)</f>
         <v>0</v>
       </c>
       <c r="BR47" s="7">
@@ -14494,9 +14494,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B48" s="19"/>
-      <c r="C48" s="18" t="s">
+    <row r="48" spans="2:99" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="17"/>
+      <c r="C48" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D48" s="12"/>
@@ -14881,9 +14881,9 @@
         <v>-</v>
       </c>
     </row>
-    <row r="49" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
+    <row r="49" spans="2:99" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
       <c r="D49" s="4"/>
       <c r="E49" s="13">
         <f>E7+E28</f>
@@ -15266,9 +15266,9 @@
         <v>-</v>
       </c>
     </row>
-    <row r="50" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
+    <row r="50" spans="2:99" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
       <c r="D50" s="4"/>
       <c r="E50" s="13">
         <f t="shared" ref="E50:F50" si="241">E8+E29</f>
@@ -15651,9 +15651,9 @@
         <v>-</v>
       </c>
     </row>
-    <row r="51" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
+    <row r="51" spans="2:99" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
       <c r="D51" s="4"/>
       <c r="E51" s="13">
         <f t="shared" ref="E51:F51" si="242">E9+E30</f>
@@ -16036,9 +16036,9 @@
         <v>-</v>
       </c>
     </row>
-    <row r="52" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
+    <row r="52" spans="2:99" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
       <c r="D52" s="4"/>
       <c r="E52" s="13">
         <f t="shared" ref="E52:F52" si="243">E10+E31</f>
@@ -16421,9 +16421,9 @@
         <v>-</v>
       </c>
     </row>
-    <row r="53" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
+    <row r="53" spans="2:99" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
       <c r="D53" s="4"/>
       <c r="E53" s="13">
         <f t="shared" ref="E53:F53" si="244">E11+E32</f>
@@ -16806,9 +16806,9 @@
         <v>-</v>
       </c>
     </row>
-    <row r="54" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
+    <row r="54" spans="2:99" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
       <c r="D54" s="4"/>
       <c r="E54" s="13">
         <f t="shared" ref="E54:F54" si="245">E12+E33</f>
@@ -17191,9 +17191,9 @@
         <v>-</v>
       </c>
     </row>
-    <row r="55" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
+    <row r="55" spans="2:99" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="4"/>
       <c r="E55" s="13">
         <f t="shared" ref="E55:F55" si="246">E13+E34</f>
@@ -17576,9 +17576,9 @@
         <v>-</v>
       </c>
     </row>
-    <row r="56" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
+    <row r="56" spans="2:99" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
       <c r="D56" s="4"/>
       <c r="E56" s="13">
         <f t="shared" ref="E56:F56" si="247">E14+E35</f>
@@ -17961,9 +17961,9 @@
         <v>-</v>
       </c>
     </row>
-    <row r="57" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
+    <row r="57" spans="2:99" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
       <c r="D57" s="4"/>
       <c r="E57" s="13">
         <f t="shared" ref="E57:F57" si="248">E15+E36</f>
@@ -18346,9 +18346,9 @@
         <v>-</v>
       </c>
     </row>
-    <row r="58" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
+    <row r="58" spans="2:99" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
       <c r="D58" s="4"/>
       <c r="E58" s="13">
         <f t="shared" ref="E58:F58" si="249">E16+E37</f>
@@ -18731,9 +18731,9 @@
         <v>-</v>
       </c>
     </row>
-    <row r="59" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
+    <row r="59" spans="2:99" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
       <c r="D59" s="4"/>
       <c r="E59" s="13">
         <f t="shared" ref="E59:F59" si="250">E17+E38</f>
@@ -19116,9 +19116,9 @@
         <v>-</v>
       </c>
     </row>
-    <row r="60" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
+    <row r="60" spans="2:99" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
       <c r="D60" s="4"/>
       <c r="E60" s="13">
         <f t="shared" ref="E60:F60" si="251">E18+E39</f>
@@ -19501,9 +19501,9 @@
         <v>-</v>
       </c>
     </row>
-    <row r="61" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
+    <row r="61" spans="2:99" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
       <c r="D61" s="4"/>
       <c r="E61" s="13">
         <f t="shared" ref="E61:F61" si="252">E19+E40</f>
@@ -19886,9 +19886,9 @@
         <v>-</v>
       </c>
     </row>
-    <row r="62" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
+    <row r="62" spans="2:99" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="4"/>
       <c r="E62" s="13">
         <f t="shared" ref="E62:F62" si="253">E20+E41</f>
@@ -20271,9 +20271,9 @@
         <v>-</v>
       </c>
     </row>
-    <row r="63" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
+    <row r="63" spans="2:99" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
       <c r="D63" s="4"/>
       <c r="E63" s="13">
         <f t="shared" ref="E63:F63" si="254">E21+E42</f>
@@ -20656,9 +20656,9 @@
         <v>-</v>
       </c>
     </row>
-    <row r="64" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
+    <row r="64" spans="2:99" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
       <c r="D64" s="4"/>
       <c r="E64" s="13">
         <f t="shared" ref="E64:F64" si="255">E22+E43</f>
@@ -21041,9 +21041,9 @@
         <v>-</v>
       </c>
     </row>
-    <row r="65" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
+    <row r="65" spans="2:99" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
       <c r="D65" s="4"/>
       <c r="E65" s="13">
         <f t="shared" ref="E65:F65" si="256">E23+E44</f>
@@ -21426,9 +21426,9 @@
         <v>-</v>
       </c>
     </row>
-    <row r="66" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
+    <row r="66" spans="2:99" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
       <c r="D66" s="4"/>
       <c r="E66" s="13">
         <f t="shared" ref="E66:F66" si="257">E24+E45</f>
@@ -21811,9 +21811,9 @@
         <v>-</v>
       </c>
     </row>
-    <row r="67" spans="2:99" x14ac:dyDescent="0.3">
-      <c r="B67" s="19"/>
-      <c r="C67" s="20"/>
+    <row r="67" spans="2:99" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="17"/>
+      <c r="C67" s="18"/>
       <c r="D67" s="9"/>
       <c r="E67" s="13">
         <f t="shared" ref="E67:F67" si="258">E25+E46</f>
@@ -22196,12 +22196,12 @@
         <v>-</v>
       </c>
     </row>
-    <row r="68" spans="2:99" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="20"/>
-      <c r="C68" s="17" t="s">
+    <row r="68" spans="2:99" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="18"/>
+      <c r="C68" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D68" s="17"/>
+      <c r="D68" s="15"/>
       <c r="E68" s="7">
         <f t="shared" ref="E68:AJ68" si="259">SUM(E48:E67)</f>
         <v>0</v>
@@ -22459,7 +22459,7 @@
         <v>0</v>
       </c>
       <c r="BQ68" s="7">
-        <f t="shared" ref="BQ68:CV68" si="261">SUM(BQ48:BQ67)</f>
+        <f t="shared" ref="BQ68:CU68" si="261">SUM(BQ48:BQ67)</f>
         <v>0</v>
       </c>
       <c r="BR68" s="7">
@@ -22585,13 +22585,23 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="B6:B68"/>
-    <mergeCell ref="C6:C25"/>
-    <mergeCell ref="C27:C46"/>
-    <mergeCell ref="C48:C67"/>
+    <mergeCell ref="CN4:CQ4"/>
+    <mergeCell ref="CR4:CU4"/>
+    <mergeCell ref="BT4:BW4"/>
+    <mergeCell ref="BX4:CA4"/>
+    <mergeCell ref="CB4:CE4"/>
+    <mergeCell ref="CF4:CI4"/>
+    <mergeCell ref="CJ4:CM4"/>
+    <mergeCell ref="AZ4:BC4"/>
+    <mergeCell ref="BD4:BG4"/>
+    <mergeCell ref="BH4:BK4"/>
+    <mergeCell ref="BL4:BO4"/>
+    <mergeCell ref="BP4:BS4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="AJ4:AM4"/>
+    <mergeCell ref="AN4:AQ4"/>
+    <mergeCell ref="AR4:AU4"/>
+    <mergeCell ref="AV4:AY4"/>
     <mergeCell ref="X4:AA4"/>
     <mergeCell ref="AB4:AE4"/>
     <mergeCell ref="B4:B5"/>
@@ -22602,23 +22612,13 @@
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="P4:S4"/>
     <mergeCell ref="T4:W4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="AJ4:AM4"/>
-    <mergeCell ref="AN4:AQ4"/>
-    <mergeCell ref="AR4:AU4"/>
-    <mergeCell ref="AV4:AY4"/>
-    <mergeCell ref="AZ4:BC4"/>
-    <mergeCell ref="BD4:BG4"/>
-    <mergeCell ref="BH4:BK4"/>
-    <mergeCell ref="BL4:BO4"/>
-    <mergeCell ref="BP4:BS4"/>
-    <mergeCell ref="CN4:CQ4"/>
-    <mergeCell ref="CR4:CU4"/>
-    <mergeCell ref="BT4:BW4"/>
-    <mergeCell ref="BX4:CA4"/>
-    <mergeCell ref="CB4:CE4"/>
-    <mergeCell ref="CF4:CI4"/>
-    <mergeCell ref="CJ4:CM4"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="B6:B68"/>
+    <mergeCell ref="C6:C25"/>
+    <mergeCell ref="C27:C46"/>
+    <mergeCell ref="C48:C67"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
